--- a/trunk/2014/GN-Checkliste 2014.xlsx
+++ b/trunk/2014/GN-Checkliste 2014.xlsx
@@ -323,9 +323,6 @@
     <t>Herbert Dalpiaz</t>
   </si>
   <si>
-    <t>aw         Michael</t>
-  </si>
-  <si>
     <t>JVP Ried (Gegenleistung 1x Kiste Bier)</t>
   </si>
   <si>
@@ -351,6 +348,9 @@
   </si>
   <si>
     <t>40xBiergarnituren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       Michael</t>
   </si>
 </sst>
 </file>
@@ -476,7 +476,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -498,15 +498,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -810,8 +808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -955,7 +953,7 @@
       <c r="G6" s="4"/>
       <c r="H6" s="1"/>
       <c r="I6" s="8"/>
-      <c r="J6" s="16"/>
+      <c r="J6" s="15"/>
       <c r="K6" s="2" t="s">
         <v>60</v>
       </c>
@@ -979,7 +977,7 @@
       <c r="G7" s="4"/>
       <c r="H7" s="1"/>
       <c r="I7" s="8"/>
-      <c r="J7" s="16"/>
+      <c r="J7" s="15"/>
       <c r="K7" s="1" t="s">
         <v>47</v>
       </c>
@@ -1053,7 +1051,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="8"/>
-      <c r="J10" s="20"/>
+      <c r="J10" s="19"/>
       <c r="K10" s="1" t="s">
         <v>1</v>
       </c>
@@ -1061,13 +1059,13 @@
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P10" s="1"/>
     </row>
     <row r="11" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
-      <c r="B11" s="16"/>
+      <c r="B11" s="15"/>
       <c r="C11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1103,7 +1101,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="8"/>
-      <c r="J12" s="18"/>
+      <c r="J12" s="20"/>
       <c r="K12" s="1" t="s">
         <v>3</v>
       </c>
@@ -1131,7 +1129,7 @@
       <c r="I13" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="J13" s="17"/>
+      <c r="J13" s="16"/>
       <c r="K13" s="1" t="s">
         <v>4</v>
       </c>
@@ -1207,7 +1205,7 @@
         <v>16</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
@@ -1232,7 +1230,7 @@
         <v>61</v>
       </c>
       <c r="B17" s="1"/>
-      <c r="C17" s="16"/>
+      <c r="C17" s="15"/>
       <c r="D17" s="1" t="s">
         <v>17</v>
       </c>
@@ -1283,7 +1281,7 @@
     </row>
     <row r="19" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
-      <c r="B19" s="17"/>
+      <c r="B19" s="16"/>
       <c r="C19" s="1" t="s">
         <v>39</v>
       </c>
@@ -1356,7 +1354,7 @@
         <v>89</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1410,7 +1408,7 @@
         <v>91</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1440,7 +1438,7 @@
         <v>81</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1470,7 +1468,7 @@
         <v>81</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1491,7 +1489,7 @@
       </c>
       <c r="J26" s="15"/>
       <c r="K26" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
@@ -1500,12 +1498,12 @@
         <v>81</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
-      <c r="B27" s="21"/>
+      <c r="B27" s="17"/>
       <c r="C27" s="1" t="s">
         <v>62</v>
       </c>
@@ -1526,14 +1524,14 @@
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="O27" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P27" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="22"/>
+      <c r="B28" s="18"/>
       <c r="C28" s="14" t="s">
         <v>95</v>
       </c>
@@ -1568,7 +1566,7 @@
       <c r="I29" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="J29" s="23"/>
+      <c r="J29" s="21"/>
       <c r="K29" s="1" t="s">
         <v>99</v>
       </c>
@@ -1596,7 +1594,7 @@
       </c>
       <c r="J30" s="15"/>
       <c r="K30" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
@@ -1605,7 +1603,7 @@
         <v>81</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1652,7 +1650,7 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="8" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="J32" s="15"/>
       <c r="K32" s="1" t="s">
@@ -1694,7 +1692,7 @@
       <c r="A34" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B34" s="19"/>
+      <c r="B34" s="16"/>
       <c r="C34" s="1" t="s">
         <v>14</v>
       </c>
@@ -1706,7 +1704,7 @@
       <c r="I34" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="J34" s="16"/>
+      <c r="J34" s="15"/>
       <c r="K34" s="1" t="s">
         <v>42</v>
       </c>
@@ -1718,7 +1716,7 @@
     </row>
     <row r="35" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
-      <c r="B35" s="16"/>
+      <c r="B35" s="15"/>
       <c r="C35" s="1" t="s">
         <v>44</v>
       </c>
@@ -1732,7 +1730,7 @@
       <c r="I35" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="J35" s="16"/>
+      <c r="J35" s="15"/>
       <c r="K35" s="1" t="s">
         <v>43</v>
       </c>
@@ -1744,7 +1742,7 @@
     </row>
     <row r="36" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
-      <c r="B36" s="16"/>
+      <c r="B36" s="15"/>
       <c r="C36" s="1" t="s">
         <v>57</v>
       </c>

--- a/trunk/2014/GN-Checkliste 2014.xlsx
+++ b/trunk/2014/GN-Checkliste 2014.xlsx
@@ -347,10 +347,10 @@
     <t>3 zusätzliche Kühlschränke (groß)</t>
   </si>
   <si>
-    <t>40xBiergarnituren</t>
-  </si>
-  <si>
     <t xml:space="preserve">       Michael</t>
+  </si>
+  <si>
+    <t>50xBiergarnituren</t>
   </si>
 </sst>
 </file>
@@ -808,8 +808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N39" sqref="N39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1594,7 +1594,7 @@
       </c>
       <c r="J30" s="15"/>
       <c r="K30" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
@@ -1650,7 +1650,7 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J32" s="15"/>
       <c r="K32" s="1" t="s">

--- a/trunk/2014/GN-Checkliste 2014.xlsx
+++ b/trunk/2014/GN-Checkliste 2014.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="114">
   <si>
     <t>Musik</t>
   </si>
@@ -98,9 +98,6 @@
     <t>Sonstiges</t>
   </si>
   <si>
-    <t>10xStehtische</t>
-  </si>
-  <si>
     <t>Glarea Nox Checkliste - Organisation</t>
   </si>
   <si>
@@ -173,9 +170,6 @@
     <t>Philipp</t>
   </si>
   <si>
-    <t>Mathias</t>
-  </si>
-  <si>
     <t>Lustbarkeitsabgabe</t>
   </si>
   <si>
@@ -338,9 +332,6 @@
     <t>Der Leberkäsofen von Böhm wird uns nicht zur Verfügung gestellt! Nur bei Warenkauf!</t>
   </si>
   <si>
-    <t xml:space="preserve">Kirchweger FR 16:00 </t>
-  </si>
-  <si>
     <t>(1x Reserve FF-Pürach)</t>
   </si>
   <si>
@@ -351,6 +342,21 @@
   </si>
   <si>
     <t>50xBiergarnituren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kirchweger FR 14:00 </t>
+  </si>
+  <si>
+    <t>Benedikt</t>
+  </si>
+  <si>
+    <t>Bar-Überdachung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>12xStehtische</t>
   </si>
 </sst>
 </file>
@@ -476,7 +482,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -504,7 +510,8 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -808,8 +815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N39" sqref="N39"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -832,7 +839,7 @@
     <row r="1" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="8"/>
       <c r="B1" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -870,7 +877,7 @@
     <row r="3" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
       <c r="B3" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -879,7 +886,7 @@
       <c r="G3" s="4"/>
       <c r="H3" s="1"/>
       <c r="I3" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>6</v>
@@ -895,11 +902,11 @@
       <c r="A4" s="8"/>
       <c r="B4" s="10"/>
       <c r="C4" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
@@ -907,13 +914,13 @@
       <c r="I4" s="8"/>
       <c r="J4" s="15"/>
       <c r="K4" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="P4" s="1"/>
     </row>
@@ -921,7 +928,7 @@
       <c r="A5" s="8"/>
       <c r="B5" s="11"/>
       <c r="C5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="4"/>
@@ -931,13 +938,13 @@
       <c r="I5" s="8"/>
       <c r="J5" s="15"/>
       <c r="K5" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="P5" s="1"/>
     </row>
@@ -945,7 +952,7 @@
       <c r="A6" s="8"/>
       <c r="B6" s="6"/>
       <c r="C6" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -955,13 +962,13 @@
       <c r="I6" s="8"/>
       <c r="J6" s="15"/>
       <c r="K6" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P6" s="1"/>
     </row>
@@ -969,7 +976,7 @@
       <c r="A7" s="8"/>
       <c r="B7" s="12"/>
       <c r="C7" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="4"/>
@@ -979,13 +986,13 @@
       <c r="I7" s="8"/>
       <c r="J7" s="15"/>
       <c r="K7" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="P7" s="1"/>
     </row>
@@ -993,7 +1000,7 @@
       <c r="A8" s="8"/>
       <c r="B8" s="13"/>
       <c r="C8" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="4"/>
@@ -1003,19 +1010,19 @@
       <c r="I8" s="8"/>
       <c r="J8" s="7"/>
       <c r="K8" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="P8" s="1"/>
     </row>
     <row r="9" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>7</v>
@@ -1027,7 +1034,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="8" t="s">
-        <v>52</v>
+        <v>110</v>
       </c>
       <c r="J9" s="4" t="s">
         <v>0</v>
@@ -1041,7 +1048,7 @@
     </row>
     <row r="10" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
-      <c r="B10" s="15"/>
+      <c r="B10" s="21"/>
       <c r="C10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1059,7 +1066,7 @@
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="P10" s="1"/>
     </row>
@@ -1075,7 +1082,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J11" s="15"/>
       <c r="K11" s="1" t="s">
@@ -1085,12 +1092,14 @@
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="P11" s="1"/>
     </row>
     <row r="12" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
+      <c r="A12" s="8" t="s">
+        <v>48</v>
+      </c>
       <c r="B12" s="15"/>
       <c r="C12" s="1" t="s">
         <v>10</v>
@@ -1109,7 +1118,7 @@
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="P12" s="1"/>
     </row>
@@ -1117,17 +1126,17 @@
       <c r="A13" s="8"/>
       <c r="B13" s="15"/>
       <c r="C13" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J13" s="16"/>
       <c r="K13" s="1" t="s">
@@ -1143,17 +1152,17 @@
       <c r="A14" s="8"/>
       <c r="B14" s="15"/>
       <c r="C14" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J14" s="15"/>
       <c r="K14" s="1" t="s">
@@ -1163,15 +1172,15 @@
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="P14" s="1"/>
     </row>
     <row r="15" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B15" s="15"/>
+        <v>59</v>
+      </c>
+      <c r="B15" s="21"/>
       <c r="C15" s="1" t="s">
         <v>15</v>
       </c>
@@ -1179,14 +1188,14 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
@@ -1197,23 +1206,23 @@
     </row>
     <row r="16" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B16" s="1"/>
-      <c r="C16" s="15"/>
+      <c r="C16" s="21"/>
       <c r="D16" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J16" s="15"/>
       <c r="K16" s="1" t="s">
@@ -1227,7 +1236,7 @@
     </row>
     <row r="17" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="15"/>
@@ -1247,7 +1256,7 @@
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="P17" s="1"/>
     </row>
@@ -1255,27 +1264,27 @@
       <c r="A18" s="8"/>
       <c r="B18" s="15"/>
       <c r="C18" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J18" s="1"/>
-      <c r="K18" s="15"/>
+      <c r="K18" s="21"/>
       <c r="L18" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="P18" s="1"/>
     </row>
@@ -1283,7 +1292,7 @@
       <c r="A19" s="8"/>
       <c r="B19" s="16"/>
       <c r="C19" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -1294,35 +1303,35 @@
       <c r="J19" s="1"/>
       <c r="K19" s="15"/>
       <c r="L19" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="P19" s="1"/>
     </row>
     <row r="20" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
-      <c r="B20" s="15"/>
+      <c r="B20" s="21"/>
       <c r="C20" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="15"/>
       <c r="L20" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
@@ -1331,7 +1340,7 @@
     </row>
     <row r="21" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>18</v>
@@ -1346,20 +1355,20 @@
       <c r="J21" s="1"/>
       <c r="K21" s="15"/>
       <c r="L21" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B22" s="15"/>
       <c r="C22" s="1" t="s">
@@ -1369,11 +1378,11 @@
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="8"/>
-      <c r="J22" s="15"/>
+      <c r="J22" s="21"/>
       <c r="K22" s="1" t="s">
         <v>24</v>
       </c>
@@ -1381,7 +1390,7 @@
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="P22" s="1"/>
     </row>
@@ -1389,7 +1398,7 @@
       <c r="A23" s="8"/>
       <c r="B23" s="15"/>
       <c r="C23" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -1405,10 +1414,10 @@
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1421,54 +1430,50 @@
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H24" s="1"/>
-      <c r="I24" s="8" t="s">
-        <v>67</v>
-      </c>
+      <c r="I24" s="8"/>
       <c r="J24" s="15"/>
       <c r="K24" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="15"/>
       <c r="C25" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H25" s="1"/>
-      <c r="I25" s="8" t="s">
-        <v>67</v>
-      </c>
+      <c r="I25" s="8"/>
       <c r="J25" s="15"/>
       <c r="K25" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
       <c r="O25" s="14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1481,62 +1486,60 @@
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H26" s="1"/>
-      <c r="I26" s="8" t="s">
-        <v>67</v>
-      </c>
+      <c r="I26" s="8"/>
       <c r="J26" s="15"/>
       <c r="K26" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
       <c r="O26" s="14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="17"/>
       <c r="C27" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="8" t="s">
-        <v>49</v>
+        <v>112</v>
       </c>
       <c r="J27" s="15"/>
       <c r="K27" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="O27" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="P27" s="14" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="18"/>
       <c r="C28" s="14" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G28" s="14" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="8"/>
@@ -1551,126 +1554,119 @@
       <c r="P28" s="1"/>
     </row>
     <row r="29" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="14" t="s">
+        <v>111</v>
+      </c>
       <c r="H29" s="1"/>
       <c r="I29" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="J29" s="21"/>
+        <v>59</v>
+      </c>
+      <c r="J29" s="22"/>
       <c r="K29" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" s="14" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P29" s="1"/>
     </row>
     <row r="30" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="A30" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J30" s="15"/>
       <c r="K30" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
       <c r="O30" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
-        <v>52</v>
-      </c>
+      <c r="A31" s="8"/>
       <c r="B31" s="15"/>
       <c r="C31" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
-      <c r="G31" s="14" t="s">
-        <v>72</v>
-      </c>
+      <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J31" s="15"/>
       <c r="K31" s="1" t="s">
-        <v>27</v>
+        <v>113</v>
       </c>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
       <c r="O31" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="P31" s="1"/>
     </row>
     <row r="32" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B32" s="15"/>
       <c r="C32" s="1" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
+      <c r="G32" s="14" t="s">
+        <v>70</v>
+      </c>
       <c r="H32" s="1"/>
       <c r="I32" s="8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="J32" s="15"/>
       <c r="K32" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
       <c r="O32" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="P32" s="1"/>
     </row>
     <row r="33" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B33" s="15"/>
       <c r="C33" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -1679,7 +1675,7 @@
       <c r="H33" s="1"/>
       <c r="I33" s="8"/>
       <c r="J33" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -1690,11 +1686,11 @@
     </row>
     <row r="34" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B34" s="16"/>
+        <v>110</v>
+      </c>
+      <c r="B34" s="15"/>
       <c r="C34" s="1" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -1702,11 +1698,11 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J34" s="15"/>
       <c r="K34" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
@@ -1715,24 +1711,24 @@
       <c r="P34" s="1"/>
     </row>
     <row r="35" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="8"/>
-      <c r="B35" s="15"/>
+      <c r="A35" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" s="16"/>
       <c r="C35" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>58</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J35" s="15"/>
       <c r="K35" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
@@ -1744,9 +1740,11 @@
       <c r="A36" s="8"/>
       <c r="B36" s="15"/>
       <c r="C36" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D36" s="1"/>
+        <v>43</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
@@ -1762,8 +1760,10 @@
     </row>
     <row r="37" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>

--- a/trunk/2014/GN-Checkliste 2014.xlsx
+++ b/trunk/2014/GN-Checkliste 2014.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="11910" windowHeight="5610"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="115">
   <si>
     <t>Musik</t>
   </si>
@@ -323,18 +323,12 @@
     <t>1 Stück Gusenhüttn</t>
   </si>
   <si>
-    <t>Abholung 04.07. / 18:00 Chrisi</t>
-  </si>
-  <si>
     <t>Abholung 05.07/ Retour am 08.07 --&gt; Personal!!?</t>
   </si>
   <si>
     <t>Der Leberkäsofen von Böhm wird uns nicht zur Verfügung gestellt! Nur bei Warenkauf!</t>
   </si>
   <si>
-    <t>(1x Reserve FF-Pürach)</t>
-  </si>
-  <si>
     <t>3 zusätzliche Kühlschränke (groß)</t>
   </si>
   <si>
@@ -357,6 +351,15 @@
   </si>
   <si>
     <t>12xStehtische</t>
+  </si>
+  <si>
+    <t>Rudi übernimmt trotz OP die Essensvorbereitung</t>
+  </si>
+  <si>
+    <t>(2x Reserve FF-Pürach)</t>
+  </si>
+  <si>
+    <t>Abholung 04.07. / 14:00</t>
   </si>
 </sst>
 </file>
@@ -482,7 +485,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -512,6 +515,7 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -815,8 +819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="P31" sqref="P31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1034,7 +1038,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J9" s="4" t="s">
         <v>0</v>
@@ -1214,7 +1218,7 @@
         <v>16</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
@@ -1248,7 +1252,7 @@
       <c r="G17" s="14"/>
       <c r="H17" s="1"/>
       <c r="I17" s="8"/>
-      <c r="J17" s="15"/>
+      <c r="J17" s="21"/>
       <c r="K17" s="1" t="s">
         <v>23</v>
       </c>
@@ -1258,7 +1262,9 @@
       <c r="O17" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="P17" s="1"/>
+      <c r="P17" s="1" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="18" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
@@ -1363,7 +1369,7 @@
         <v>87</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1406,7 +1412,7 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="8"/>
-      <c r="J23" s="15"/>
+      <c r="J23" s="23"/>
       <c r="K23" s="1" t="s">
         <v>25</v>
       </c>
@@ -1417,7 +1423,7 @@
         <v>89</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1445,7 +1451,7 @@
         <v>79</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1473,7 +1479,7 @@
         <v>79</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1492,7 +1498,7 @@
       <c r="I26" s="8"/>
       <c r="J26" s="15"/>
       <c r="K26" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
@@ -1501,7 +1507,7 @@
         <v>79</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1518,9 +1524,9 @@
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="J27" s="15"/>
+        <v>110</v>
+      </c>
+      <c r="J27" s="21"/>
       <c r="K27" s="1" t="s">
         <v>28</v>
       </c>
@@ -1530,7 +1536,7 @@
         <v>101</v>
       </c>
       <c r="P27" s="14" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1556,7 +1562,7 @@
     <row r="29" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="18"/>
       <c r="C29" s="14" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="8" t="s">
@@ -1592,7 +1598,7 @@
       </c>
       <c r="J30" s="15"/>
       <c r="K30" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
@@ -1601,7 +1607,7 @@
         <v>79</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1620,7 +1626,7 @@
       </c>
       <c r="J31" s="15"/>
       <c r="K31" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
@@ -1646,7 +1652,7 @@
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J32" s="15"/>
       <c r="K32" s="1" t="s">
@@ -1686,7 +1692,7 @@
     </row>
     <row r="34" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B34" s="15"/>
       <c r="C34" s="1" t="s">

--- a/trunk/2014/GN-Checkliste 2014.xlsx
+++ b/trunk/2014/GN-Checkliste 2014.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="11910" windowHeight="5610"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="113">
   <si>
     <t>Musik</t>
   </si>
@@ -254,9 +254,6 @@
     <t>Ganglberger</t>
   </si>
   <si>
-    <t>Brau Union</t>
-  </si>
-  <si>
     <t>Land OÖ</t>
   </si>
   <si>
@@ -321,9 +318,6 @@
   </si>
   <si>
     <t>1 Stück Gusenhüttn</t>
-  </si>
-  <si>
-    <t>Abholung 05.07/ Retour am 08.07 --&gt; Personal!!?</t>
   </si>
   <si>
     <t>Der Leberkäsofen von Böhm wird uns nicht zur Verfügung gestellt! Nur bei Warenkauf!</t>
@@ -820,7 +814,7 @@
   <dimension ref="A1:P43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="P31" sqref="P31"/>
+      <selection activeCell="P40" sqref="P40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -918,7 +912,7 @@
       <c r="I4" s="8"/>
       <c r="J4" s="15"/>
       <c r="K4" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
@@ -942,13 +936,13 @@
       <c r="I5" s="8"/>
       <c r="J5" s="15"/>
       <c r="K5" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P5" s="1"/>
     </row>
@@ -972,7 +966,7 @@
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P6" s="1"/>
     </row>
@@ -996,7 +990,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P7" s="1"/>
     </row>
@@ -1038,7 +1032,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J9" s="4" t="s">
         <v>0</v>
@@ -1070,7 +1064,7 @@
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P10" s="1"/>
     </row>
@@ -1122,7 +1116,7 @@
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P12" s="1"/>
     </row>
@@ -1156,13 +1150,13 @@
       <c r="A14" s="8"/>
       <c r="B14" s="15"/>
       <c r="C14" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="8" t="s">
@@ -1196,7 +1190,7 @@
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J15" s="4" t="s">
         <v>62</v>
@@ -1218,7 +1212,7 @@
         <v>16</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
@@ -1260,17 +1254,17 @@
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="B18" s="15"/>
       <c r="C18" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -1290,7 +1284,7 @@
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P18" s="1"/>
     </row>
@@ -1314,7 +1308,7 @@
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P19" s="1"/>
     </row>
@@ -1366,10 +1360,10 @@
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1396,7 +1390,7 @@
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P22" s="1"/>
     </row>
@@ -1420,10 +1414,10 @@
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1439,7 +1433,9 @@
         <v>67</v>
       </c>
       <c r="H24" s="1"/>
-      <c r="I24" s="8"/>
+      <c r="I24" s="8" t="s">
+        <v>61</v>
+      </c>
       <c r="J24" s="15"/>
       <c r="K24" s="1" t="s">
         <v>64</v>
@@ -1448,11 +1444,9 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="P24" s="1" t="s">
-        <v>102</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="P24" s="1"/>
     </row>
     <row r="25" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
@@ -1467,20 +1461,20 @@
         <v>67</v>
       </c>
       <c r="H25" s="1"/>
-      <c r="I25" s="8"/>
+      <c r="I25" s="8" t="s">
+        <v>61</v>
+      </c>
       <c r="J25" s="15"/>
       <c r="K25" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
       <c r="O25" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="P25" s="1" t="s">
-        <v>102</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="P25" s="1"/>
     </row>
     <row r="26" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
@@ -1495,20 +1489,20 @@
         <v>68</v>
       </c>
       <c r="H26" s="1"/>
-      <c r="I26" s="8"/>
+      <c r="I26" s="8" t="s">
+        <v>61</v>
+      </c>
       <c r="J26" s="15"/>
       <c r="K26" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
       <c r="O26" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="P26" s="1" t="s">
-        <v>102</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="P26" s="1"/>
     </row>
     <row r="27" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
@@ -1524,7 +1518,7 @@
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J27" s="21"/>
       <c r="K27" s="1" t="s">
@@ -1533,19 +1527,19 @@
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="O27" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P27" s="14" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="18"/>
       <c r="C28" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="G28" s="14" t="s">
         <v>93</v>
-      </c>
-      <c r="G28" s="14" t="s">
-        <v>94</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="8"/>
@@ -1562,7 +1556,7 @@
     <row r="29" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="18"/>
       <c r="C29" s="14" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="8" t="s">
@@ -1570,13 +1564,13 @@
       </c>
       <c r="J29" s="22"/>
       <c r="K29" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P29" s="1"/>
     </row>
@@ -1594,25 +1588,23 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="J30" s="15"/>
       <c r="K30" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
-      <c r="O30" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="P30" s="1" t="s">
-        <v>102</v>
-      </c>
+      <c r="O30" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="P30" s="1"/>
     </row>
     <row r="31" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
-      <c r="B31" s="15"/>
+      <c r="B31" s="21"/>
       <c r="C31" s="1" t="s">
         <v>12</v>
       </c>
@@ -1626,7 +1618,7 @@
       </c>
       <c r="J31" s="15"/>
       <c r="K31" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
@@ -1640,7 +1632,7 @@
       <c r="A32" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B32" s="15"/>
+      <c r="B32" s="21"/>
       <c r="C32" s="1" t="s">
         <v>13</v>
       </c>
@@ -1652,7 +1644,7 @@
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J32" s="15"/>
       <c r="K32" s="1" t="s">
@@ -1662,7 +1654,7 @@
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
       <c r="O32" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P32" s="1"/>
     </row>
@@ -1692,7 +1684,7 @@
     </row>
     <row r="34" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B34" s="15"/>
       <c r="C34" s="1" t="s">

--- a/trunk/2014/GN-Checkliste 2014.xlsx
+++ b/trunk/2014/GN-Checkliste 2014.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="114">
   <si>
     <t>Musik</t>
   </si>
@@ -326,9 +326,6 @@
     <t>3 zusätzliche Kühlschränke (groß)</t>
   </si>
   <si>
-    <t xml:space="preserve">       Michael</t>
-  </si>
-  <si>
     <t>50xBiergarnituren</t>
   </si>
   <si>
@@ -354,6 +351,12 @@
   </si>
   <si>
     <t>Abholung 04.07. / 14:00</t>
+  </si>
+  <si>
+    <t>aw</t>
+  </si>
+  <si>
+    <t>aw       Michael</t>
   </si>
 </sst>
 </file>
@@ -479,7 +482,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -510,6 +513,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -814,7 +818,7 @@
   <dimension ref="A1:P43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="P40" sqref="P40"/>
+      <selection activeCell="N36" sqref="N36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -909,8 +913,10 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="15"/>
+      <c r="I4" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="J4" s="21"/>
       <c r="K4" s="1" t="s">
         <v>82</v>
       </c>
@@ -933,8 +939,10 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="15"/>
+      <c r="I5" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="J5" s="21"/>
       <c r="K5" s="1" t="s">
         <v>83</v>
       </c>
@@ -981,8 +989,10 @@
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="15"/>
+      <c r="I7" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="J7" s="21"/>
       <c r="K7" s="1" t="s">
         <v>46</v>
       </c>
@@ -1032,7 +1042,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J9" s="4" t="s">
         <v>0</v>
@@ -1136,7 +1146,7 @@
       <c r="I13" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="J13" s="16"/>
+      <c r="J13" s="24"/>
       <c r="K13" s="1" t="s">
         <v>4</v>
       </c>
@@ -1212,7 +1222,7 @@
         <v>16</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
@@ -1257,7 +1267,7 @@
         <v>86</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1370,7 +1380,7 @@
       <c r="A22" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B22" s="15"/>
+      <c r="B22" s="21"/>
       <c r="C22" s="1" t="s">
         <v>5</v>
       </c>
@@ -1396,7 +1406,7 @@
     </row>
     <row r="23" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
-      <c r="B23" s="15"/>
+      <c r="B23" s="21"/>
       <c r="C23" s="1" t="s">
         <v>53</v>
       </c>
@@ -1417,12 +1427,12 @@
         <v>88</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
-      <c r="B24" s="15"/>
+      <c r="B24" s="21"/>
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1518,7 +1528,7 @@
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J27" s="21"/>
       <c r="K27" s="1" t="s">
@@ -1530,7 +1540,7 @@
         <v>100</v>
       </c>
       <c r="P27" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1556,7 +1566,7 @@
     <row r="29" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="18"/>
       <c r="C29" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="8" t="s">
@@ -1592,7 +1602,7 @@
       </c>
       <c r="J30" s="15"/>
       <c r="K30" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
@@ -1618,7 +1628,7 @@
       </c>
       <c r="J31" s="15"/>
       <c r="K31" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
@@ -1644,9 +1654,9 @@
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="J32" s="15"/>
+        <v>113</v>
+      </c>
+      <c r="J32" s="21"/>
       <c r="K32" s="1" t="s">
         <v>45</v>
       </c>
@@ -1684,7 +1694,7 @@
     </row>
     <row r="34" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B34" s="15"/>
       <c r="C34" s="1" t="s">

--- a/trunk/2014/GN-Checkliste 2014.xlsx
+++ b/trunk/2014/GN-Checkliste 2014.xlsx
@@ -482,7 +482,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -514,6 +514,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -818,7 +819,7 @@
   <dimension ref="A1:P43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N36" sqref="N36"/>
+      <selection activeCell="O47" sqref="O47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1544,7 +1545,7 @@
       </c>
     </row>
     <row r="28" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="18"/>
+      <c r="B28" s="25"/>
       <c r="C28" s="14" t="s">
         <v>92</v>
       </c>

--- a/trunk/2014/GN-Checkliste 2014.xlsx
+++ b/trunk/2014/GN-Checkliste 2014.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="116">
   <si>
     <t>Musik</t>
   </si>
@@ -357,6 +357,12 @@
   </si>
   <si>
     <t>aw       Michael</t>
+  </si>
+  <si>
+    <t>Geschirrmobil</t>
+  </si>
+  <si>
+    <t>am DO herstellen</t>
   </si>
 </sst>
 </file>
@@ -482,7 +488,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -506,7 +512,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -818,8 +823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="O47" sqref="O47"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -917,7 +922,7 @@
       <c r="I4" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="J4" s="21"/>
+      <c r="J4" s="20"/>
       <c r="K4" s="1" t="s">
         <v>82</v>
       </c>
@@ -943,7 +948,7 @@
       <c r="I5" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="J5" s="21"/>
+      <c r="J5" s="20"/>
       <c r="K5" s="1" t="s">
         <v>83</v>
       </c>
@@ -993,7 +998,7 @@
       <c r="I7" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="J7" s="21"/>
+      <c r="J7" s="20"/>
       <c r="K7" s="1" t="s">
         <v>46</v>
       </c>
@@ -1057,7 +1062,7 @@
     </row>
     <row r="10" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
-      <c r="B10" s="21"/>
+      <c r="B10" s="20"/>
       <c r="C10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1067,7 +1072,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="8"/>
-      <c r="J10" s="19"/>
+      <c r="J10" s="18"/>
       <c r="K10" s="1" t="s">
         <v>1</v>
       </c>
@@ -1119,7 +1124,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="8"/>
-      <c r="J12" s="20"/>
+      <c r="J12" s="19"/>
       <c r="K12" s="1" t="s">
         <v>3</v>
       </c>
@@ -1147,7 +1152,7 @@
       <c r="I13" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="J13" s="24"/>
+      <c r="J13" s="23"/>
       <c r="K13" s="1" t="s">
         <v>4</v>
       </c>
@@ -1189,7 +1194,7 @@
       <c r="A15" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="21"/>
+      <c r="B15" s="20"/>
       <c r="C15" s="1" t="s">
         <v>15</v>
       </c>
@@ -1218,7 +1223,7 @@
         <v>59</v>
       </c>
       <c r="B16" s="1"/>
-      <c r="C16" s="21"/>
+      <c r="C16" s="20"/>
       <c r="D16" s="1" t="s">
         <v>16</v>
       </c>
@@ -1257,7 +1262,7 @@
       <c r="G17" s="14"/>
       <c r="H17" s="1"/>
       <c r="I17" s="8"/>
-      <c r="J17" s="21"/>
+      <c r="J17" s="20"/>
       <c r="K17" s="1" t="s">
         <v>23</v>
       </c>
@@ -1288,7 +1293,7 @@
         <v>48</v>
       </c>
       <c r="J18" s="1"/>
-      <c r="K18" s="21"/>
+      <c r="K18" s="20"/>
       <c r="L18" s="1" t="s">
         <v>31</v>
       </c>
@@ -1325,7 +1330,7 @@
     </row>
     <row r="20" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
-      <c r="B20" s="21"/>
+      <c r="B20" s="20"/>
       <c r="C20" s="1" t="s">
         <v>71</v>
       </c>
@@ -1340,7 +1345,7 @@
         <v>48</v>
       </c>
       <c r="J20" s="1"/>
-      <c r="K20" s="15"/>
+      <c r="K20" s="20"/>
       <c r="L20" s="1" t="s">
         <v>33</v>
       </c>
@@ -1381,7 +1386,7 @@
       <c r="A22" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B22" s="21"/>
+      <c r="B22" s="20"/>
       <c r="C22" s="1" t="s">
         <v>5</v>
       </c>
@@ -1393,7 +1398,7 @@
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="8"/>
-      <c r="J22" s="21"/>
+      <c r="J22" s="20"/>
       <c r="K22" s="1" t="s">
         <v>24</v>
       </c>
@@ -1407,7 +1412,7 @@
     </row>
     <row r="23" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
-      <c r="B23" s="21"/>
+      <c r="B23" s="20"/>
       <c r="C23" s="1" t="s">
         <v>53</v>
       </c>
@@ -1417,7 +1422,7 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="8"/>
-      <c r="J23" s="23"/>
+      <c r="J23" s="22"/>
       <c r="K23" s="1" t="s">
         <v>25</v>
       </c>
@@ -1433,7 +1438,7 @@
     </row>
     <row r="24" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
-      <c r="B24" s="21"/>
+      <c r="B24" s="20"/>
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1447,7 +1452,7 @@
       <c r="I24" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="J24" s="15"/>
+      <c r="J24" s="20"/>
       <c r="K24" s="1" t="s">
         <v>64</v>
       </c>
@@ -1475,7 +1480,7 @@
       <c r="I25" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="J25" s="15"/>
+      <c r="J25" s="20"/>
       <c r="K25" s="1" t="s">
         <v>97</v>
       </c>
@@ -1503,7 +1508,7 @@
       <c r="I26" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="J26" s="15"/>
+      <c r="J26" s="20"/>
       <c r="K26" s="1" t="s">
         <v>102</v>
       </c>
@@ -1517,7 +1522,7 @@
     </row>
     <row r="27" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
-      <c r="B27" s="17"/>
+      <c r="B27" s="22"/>
       <c r="C27" s="1" t="s">
         <v>60</v>
       </c>
@@ -1531,7 +1536,7 @@
       <c r="I27" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="J27" s="21"/>
+      <c r="J27" s="20"/>
       <c r="K27" s="1" t="s">
         <v>28</v>
       </c>
@@ -1545,44 +1550,36 @@
       </c>
     </row>
     <row r="28" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="25"/>
+      <c r="B28" s="24"/>
       <c r="C28" s="14" t="s">
         <v>92</v>
       </c>
       <c r="G28" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="H28" s="1"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="O28" s="14" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="29" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="18"/>
+      <c r="B29" s="17"/>
       <c r="C29" s="14" t="s">
         <v>106</v>
       </c>
       <c r="H29" s="1"/>
-      <c r="I29" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="J29" s="22"/>
-      <c r="K29" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="14" t="s">
-        <v>94</v>
-      </c>
+      <c r="I29" s="8"/>
+      <c r="J29" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
       <c r="P29" s="1"/>
     </row>
     <row r="30" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1599,23 +1596,23 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="J30" s="15"/>
+        <v>59</v>
+      </c>
+      <c r="J30" s="21"/>
       <c r="K30" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
+        <v>96</v>
+      </c>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
       <c r="O30" s="14" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="P30" s="1"/>
     </row>
     <row r="31" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
-      <c r="B31" s="21"/>
+      <c r="B31" s="20"/>
       <c r="C31" s="1" t="s">
         <v>12</v>
       </c>
@@ -1625,17 +1622,17 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="J31" s="15"/>
+        <v>61</v>
+      </c>
+      <c r="J31" s="20"/>
       <c r="K31" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
-      <c r="O31" s="1" t="s">
-        <v>66</v>
+      <c r="O31" s="14" t="s">
+        <v>85</v>
       </c>
       <c r="P31" s="1"/>
     </row>
@@ -1643,7 +1640,7 @@
       <c r="A32" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B32" s="21"/>
+      <c r="B32" s="20"/>
       <c r="C32" s="1" t="s">
         <v>13</v>
       </c>
@@ -1655,17 +1652,17 @@
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="J32" s="21"/>
+        <v>59</v>
+      </c>
+      <c r="J32" s="20"/>
       <c r="K32" s="1" t="s">
-        <v>45</v>
+        <v>108</v>
       </c>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
-      <c r="O32" s="14" t="s">
-        <v>79</v>
+      <c r="O32" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="P32" s="1"/>
     </row>
@@ -1682,15 +1679,19 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="K33" s="1"/>
+      <c r="I33" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="J33" s="20"/>
+      <c r="K33" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
+      <c r="O33" s="14" t="s">
+        <v>79</v>
+      </c>
       <c r="P33" s="1"/>
     </row>
     <row r="34" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1706,13 +1707,11 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
-      <c r="I34" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="J34" s="15"/>
-      <c r="K34" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="I34" s="8"/>
+      <c r="J34" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
@@ -1737,7 +1736,7 @@
       </c>
       <c r="J35" s="15"/>
       <c r="K35" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
@@ -1758,9 +1757,13 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
+      <c r="I36" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="J36" s="15"/>
+      <c r="K36" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
@@ -1805,7 +1808,17 @@
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
     </row>
-    <row r="39" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H39" s="1"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+    </row>
     <row r="40" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="41" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="42" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/trunk/2014/GN-Checkliste 2014.xlsx
+++ b/trunk/2014/GN-Checkliste 2014.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="11910" windowHeight="5610"/>
@@ -10,7 +10,7 @@
     <sheet name="Organisatorisches" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -311,9 +311,6 @@
     <t>Durchlaufkühler + 2 Kohlensäurefl.</t>
   </si>
   <si>
-    <t>Herbert Dalpiaz</t>
-  </si>
-  <si>
     <t>JVP Ried (Gegenleistung 1x Kiste Bier)</t>
   </si>
   <si>
@@ -363,13 +360,16 @@
   </si>
   <si>
     <t>am DO herstellen</t>
+  </si>
+  <si>
+    <t>Plöderl Mike</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -514,12 +514,12 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -535,7 +535,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
   <a:themeElements>
     <a:clrScheme name="Larissa">
       <a:dk1>
@@ -609,7 +609,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -644,7 +643,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Larissa">
@@ -820,14 +818,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J40" sqref="J40"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="Q37" sqref="Q37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.7109375" style="3" customWidth="1"/>
     <col min="2" max="3" width="3.7109375" customWidth="1"/>
@@ -844,7 +842,7 @@
     <col min="15" max="15" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" ht="26.25" customHeight="1">
       <c r="A1" s="8"/>
       <c r="B1" s="9" t="s">
         <v>27</v>
@@ -864,7 +862,7 @@
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
-    <row r="2" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="13.5" customHeight="1">
       <c r="A2" s="8"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -882,7 +880,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="13.5" customHeight="1">
       <c r="A3" s="8"/>
       <c r="B3" s="4" t="s">
         <v>34</v>
@@ -906,7 +904,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="13.5" customHeight="1">
       <c r="A4" s="8"/>
       <c r="B4" s="10"/>
       <c r="C4" s="2" t="s">
@@ -920,9 +918,9 @@
       <c r="G4" s="5"/>
       <c r="H4" s="1"/>
       <c r="I4" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="J4" s="20"/>
+        <v>111</v>
+      </c>
+      <c r="J4" s="19"/>
       <c r="K4" s="1" t="s">
         <v>82</v>
       </c>
@@ -934,7 +932,7 @@
       </c>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="13.5" customHeight="1">
       <c r="A5" s="8"/>
       <c r="B5" s="11"/>
       <c r="C5" s="1" t="s">
@@ -946,9 +944,9 @@
       <c r="G5" s="4"/>
       <c r="H5" s="1"/>
       <c r="I5" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="J5" s="20"/>
+        <v>111</v>
+      </c>
+      <c r="J5" s="19"/>
       <c r="K5" s="1" t="s">
         <v>83</v>
       </c>
@@ -960,7 +958,7 @@
       </c>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="13.5" customHeight="1">
       <c r="A6" s="8"/>
       <c r="B6" s="6"/>
       <c r="C6" s="1" t="s">
@@ -984,7 +982,7 @@
       </c>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="13.5" customHeight="1">
       <c r="A7" s="8"/>
       <c r="B7" s="12"/>
       <c r="C7" s="1" t="s">
@@ -996,9 +994,9 @@
       <c r="G7" s="4"/>
       <c r="H7" s="1"/>
       <c r="I7" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="J7" s="20"/>
+        <v>111</v>
+      </c>
+      <c r="J7" s="19"/>
       <c r="K7" s="1" t="s">
         <v>46</v>
       </c>
@@ -1010,7 +1008,7 @@
       </c>
       <c r="P7" s="1"/>
     </row>
-    <row r="8" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="13.5" customHeight="1">
       <c r="A8" s="8"/>
       <c r="B8" s="13"/>
       <c r="C8" s="14" t="s">
@@ -1034,7 +1032,7 @@
       </c>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="13.5" customHeight="1">
       <c r="A9" s="8" t="s">
         <v>47</v>
       </c>
@@ -1048,7 +1046,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J9" s="4" t="s">
         <v>0</v>
@@ -1060,9 +1058,9 @@
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="13.5" customHeight="1">
       <c r="A10" s="8"/>
-      <c r="B10" s="20"/>
+      <c r="B10" s="19"/>
       <c r="C10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1080,11 +1078,11 @@
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" ht="13.5" customHeight="1">
       <c r="A11" s="8"/>
       <c r="B11" s="15"/>
       <c r="C11" s="1" t="s">
@@ -1110,7 +1108,7 @@
       </c>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" ht="13.5" customHeight="1">
       <c r="A12" s="8" t="s">
         <v>48</v>
       </c>
@@ -1124,7 +1122,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="8"/>
-      <c r="J12" s="19"/>
+      <c r="J12" s="24"/>
       <c r="K12" s="1" t="s">
         <v>3</v>
       </c>
@@ -1132,11 +1130,11 @@
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="14" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="13.5" customHeight="1">
       <c r="A13" s="8"/>
       <c r="B13" s="15"/>
       <c r="C13" s="1" t="s">
@@ -1152,7 +1150,7 @@
       <c r="I13" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="J13" s="23"/>
+      <c r="J13" s="22"/>
       <c r="K13" s="1" t="s">
         <v>4</v>
       </c>
@@ -1162,7 +1160,7 @@
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" ht="13.5" customHeight="1">
       <c r="A14" s="8"/>
       <c r="B14" s="15"/>
       <c r="C14" s="1" t="s">
@@ -1190,11 +1188,11 @@
       </c>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" ht="13.5" customHeight="1">
       <c r="A15" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="20"/>
+      <c r="B15" s="19"/>
       <c r="C15" s="1" t="s">
         <v>15</v>
       </c>
@@ -1218,17 +1216,17 @@
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" ht="13.5" customHeight="1">
       <c r="A16" s="8" t="s">
         <v>59</v>
       </c>
       <c r="B16" s="1"/>
-      <c r="C16" s="20"/>
+      <c r="C16" s="19"/>
       <c r="D16" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
@@ -1248,7 +1246,7 @@
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" ht="13.5" customHeight="1">
       <c r="A17" s="8" t="s">
         <v>59</v>
       </c>
@@ -1262,7 +1260,7 @@
       <c r="G17" s="14"/>
       <c r="H17" s="1"/>
       <c r="I17" s="8"/>
-      <c r="J17" s="20"/>
+      <c r="J17" s="19"/>
       <c r="K17" s="1" t="s">
         <v>23</v>
       </c>
@@ -1273,10 +1271,10 @@
         <v>86</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="13.5" customHeight="1">
       <c r="A18" s="8"/>
       <c r="B18" s="15"/>
       <c r="C18" s="1" t="s">
@@ -1293,7 +1291,7 @@
         <v>48</v>
       </c>
       <c r="J18" s="1"/>
-      <c r="K18" s="20"/>
+      <c r="K18" s="19"/>
       <c r="L18" s="1" t="s">
         <v>31</v>
       </c>
@@ -1304,7 +1302,7 @@
       </c>
       <c r="P18" s="1"/>
     </row>
-    <row r="19" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" ht="13.5" customHeight="1">
       <c r="A19" s="8"/>
       <c r="B19" s="16"/>
       <c r="C19" s="1" t="s">
@@ -1328,9 +1326,9 @@
       </c>
       <c r="P19" s="1"/>
     </row>
-    <row r="20" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" ht="13.5" customHeight="1">
       <c r="A20" s="8"/>
-      <c r="B20" s="20"/>
+      <c r="B20" s="19"/>
       <c r="C20" s="1" t="s">
         <v>71</v>
       </c>
@@ -1345,7 +1343,7 @@
         <v>48</v>
       </c>
       <c r="J20" s="1"/>
-      <c r="K20" s="20"/>
+      <c r="K20" s="19"/>
       <c r="L20" s="1" t="s">
         <v>33</v>
       </c>
@@ -1354,7 +1352,7 @@
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
     </row>
-    <row r="21" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" ht="13.5" customHeight="1">
       <c r="A21" s="8" t="s">
         <v>57</v>
       </c>
@@ -1379,14 +1377,14 @@
         <v>86</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="13.5" customHeight="1">
       <c r="A22" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B22" s="20"/>
+      <c r="B22" s="19"/>
       <c r="C22" s="1" t="s">
         <v>5</v>
       </c>
@@ -1398,7 +1396,7 @@
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="8"/>
-      <c r="J22" s="20"/>
+      <c r="J22" s="19"/>
       <c r="K22" s="1" t="s">
         <v>24</v>
       </c>
@@ -1410,9 +1408,9 @@
       </c>
       <c r="P22" s="1"/>
     </row>
-    <row r="23" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" ht="13.5" customHeight="1">
       <c r="A23" s="8"/>
-      <c r="B23" s="20"/>
+      <c r="B23" s="19"/>
       <c r="C23" s="1" t="s">
         <v>53</v>
       </c>
@@ -1422,7 +1420,7 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="8"/>
-      <c r="J23" s="22"/>
+      <c r="J23" s="21"/>
       <c r="K23" s="1" t="s">
         <v>25</v>
       </c>
@@ -1433,12 +1431,12 @@
         <v>88</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="13.5" customHeight="1">
       <c r="A24" s="8"/>
-      <c r="B24" s="20"/>
+      <c r="B24" s="19"/>
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1452,7 +1450,7 @@
       <c r="I24" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="J24" s="20"/>
+      <c r="J24" s="19"/>
       <c r="K24" s="1" t="s">
         <v>64</v>
       </c>
@@ -1464,7 +1462,7 @@
       </c>
       <c r="P24" s="1"/>
     </row>
-    <row r="25" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" ht="13.5" customHeight="1">
       <c r="A25" s="8"/>
       <c r="B25" s="15"/>
       <c r="C25" s="1" t="s">
@@ -1480,7 +1478,7 @@
       <c r="I25" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="J25" s="20"/>
+      <c r="J25" s="19"/>
       <c r="K25" s="1" t="s">
         <v>97</v>
       </c>
@@ -1492,7 +1490,7 @@
       </c>
       <c r="P25" s="1"/>
     </row>
-    <row r="26" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" ht="13.5" customHeight="1">
       <c r="A26" s="8"/>
       <c r="B26" s="15"/>
       <c r="C26" s="1" t="s">
@@ -1508,9 +1506,9 @@
       <c r="I26" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="J26" s="20"/>
+      <c r="J26" s="19"/>
       <c r="K26" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
@@ -1520,9 +1518,9 @@
       </c>
       <c r="P26" s="1"/>
     </row>
-    <row r="27" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" ht="13.5" customHeight="1">
       <c r="A27" s="8"/>
-      <c r="B27" s="22"/>
+      <c r="B27" s="21"/>
       <c r="C27" s="1" t="s">
         <v>60</v>
       </c>
@@ -1534,41 +1532,41 @@
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="J27" s="20"/>
+        <v>106</v>
+      </c>
+      <c r="J27" s="19"/>
       <c r="K27" s="1" t="s">
         <v>28</v>
       </c>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="O27" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P27" s="14" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="24"/>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="13.5" customHeight="1">
+      <c r="B28" s="23"/>
       <c r="C28" s="14" t="s">
         <v>92</v>
       </c>
       <c r="G28" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="J28" s="24"/>
+      <c r="J28" s="23"/>
       <c r="K28" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="O28" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="O28" s="14" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:16" ht="13.5" customHeight="1">
       <c r="B29" s="17"/>
       <c r="C29" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="8"/>
@@ -1582,7 +1580,7 @@
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
     </row>
-    <row r="30" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" ht="13.5" customHeight="1">
       <c r="A30" s="8" t="s">
         <v>48</v>
       </c>
@@ -1598,7 +1596,7 @@
       <c r="I30" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="J30" s="21"/>
+      <c r="J30" s="20"/>
       <c r="K30" s="1" t="s">
         <v>96</v>
       </c>
@@ -1610,9 +1608,9 @@
       </c>
       <c r="P30" s="1"/>
     </row>
-    <row r="31" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" ht="13.5" customHeight="1">
       <c r="A31" s="8"/>
-      <c r="B31" s="20"/>
+      <c r="B31" s="19"/>
       <c r="C31" s="1" t="s">
         <v>12</v>
       </c>
@@ -1624,9 +1622,9 @@
       <c r="I31" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="J31" s="20"/>
+      <c r="J31" s="19"/>
       <c r="K31" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
@@ -1636,11 +1634,11 @@
       </c>
       <c r="P31" s="1"/>
     </row>
-    <row r="32" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" ht="13.5" customHeight="1">
       <c r="A32" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B32" s="20"/>
+      <c r="B32" s="19"/>
       <c r="C32" s="1" t="s">
         <v>13</v>
       </c>
@@ -1654,9 +1652,9 @@
       <c r="I32" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="J32" s="20"/>
+      <c r="J32" s="19"/>
       <c r="K32" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
@@ -1666,7 +1664,7 @@
       </c>
       <c r="P32" s="1"/>
     </row>
-    <row r="33" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" ht="13.5" customHeight="1">
       <c r="A33" s="8" t="s">
         <v>59</v>
       </c>
@@ -1680,9 +1678,9 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="J33" s="20"/>
+        <v>112</v>
+      </c>
+      <c r="J33" s="19"/>
       <c r="K33" s="1" t="s">
         <v>45</v>
       </c>
@@ -1694,9 +1692,9 @@
       </c>
       <c r="P33" s="1"/>
     </row>
-    <row r="34" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" ht="13.5" customHeight="1">
       <c r="A34" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B34" s="15"/>
       <c r="C34" s="1" t="s">
@@ -1718,7 +1716,7 @@
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
     </row>
-    <row r="35" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" ht="13.5" customHeight="1">
       <c r="A35" s="8" t="s">
         <v>49</v>
       </c>
@@ -1744,7 +1742,7 @@
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
     </row>
-    <row r="36" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" ht="13.5" customHeight="1">
       <c r="A36" s="8"/>
       <c r="B36" s="15"/>
       <c r="C36" s="1" t="s">
@@ -1770,7 +1768,7 @@
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
     </row>
-    <row r="37" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" ht="13.5" customHeight="1">
       <c r="A37" s="8"/>
       <c r="B37" s="15"/>
       <c r="C37" s="1" t="s">
@@ -1790,7 +1788,7 @@
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
     </row>
-    <row r="38" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" ht="13.5" customHeight="1">
       <c r="A38" s="8"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -1808,7 +1806,7 @@
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
     </row>
-    <row r="39" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" ht="13.5" customHeight="1">
       <c r="H39" s="1"/>
       <c r="I39" s="8"/>
       <c r="J39" s="1"/>
@@ -1819,10 +1817,10 @@
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
     </row>
-    <row r="40" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:16" ht="13.5" customHeight="1"/>
+    <row r="41" spans="1:16" ht="13.5" customHeight="1"/>
+    <row r="42" spans="1:16" ht="13.5" customHeight="1"/>
+    <row r="43" spans="1:16" ht="13.5" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1830,12 +1828,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/trunk/2014/GN-Checkliste 2014.xlsx
+++ b/trunk/2014/GN-Checkliste 2014.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="11910" windowHeight="5610"/>
@@ -10,7 +10,7 @@
     <sheet name="Organisatorisches" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -429,7 +429,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -457,6 +457,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -488,7 +494,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -513,13 +519,14 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -821,8 +828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Q37" sqref="Q37"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -920,7 +927,7 @@
       <c r="I4" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="J4" s="19"/>
+      <c r="J4" s="18"/>
       <c r="K4" s="1" t="s">
         <v>82</v>
       </c>
@@ -946,7 +953,7 @@
       <c r="I5" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="J5" s="19"/>
+      <c r="J5" s="18"/>
       <c r="K5" s="1" t="s">
         <v>83</v>
       </c>
@@ -996,7 +1003,7 @@
       <c r="I7" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="J7" s="19"/>
+      <c r="J7" s="18"/>
       <c r="K7" s="1" t="s">
         <v>46</v>
       </c>
@@ -1060,7 +1067,7 @@
     </row>
     <row r="10" spans="1:16" ht="13.5" customHeight="1">
       <c r="A10" s="8"/>
-      <c r="B10" s="19"/>
+      <c r="B10" s="18"/>
       <c r="C10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1070,7 +1077,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="8"/>
-      <c r="J10" s="18"/>
+      <c r="J10" s="24"/>
       <c r="K10" s="1" t="s">
         <v>1</v>
       </c>
@@ -1122,7 +1129,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="8"/>
-      <c r="J12" s="24"/>
+      <c r="J12" s="23"/>
       <c r="K12" s="1" t="s">
         <v>3</v>
       </c>
@@ -1150,7 +1157,7 @@
       <c r="I13" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="J13" s="22"/>
+      <c r="J13" s="21"/>
       <c r="K13" s="1" t="s">
         <v>4</v>
       </c>
@@ -1192,7 +1199,7 @@
       <c r="A15" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="19"/>
+      <c r="B15" s="18"/>
       <c r="C15" s="1" t="s">
         <v>15</v>
       </c>
@@ -1221,7 +1228,7 @@
         <v>59</v>
       </c>
       <c r="B16" s="1"/>
-      <c r="C16" s="19"/>
+      <c r="C16" s="18"/>
       <c r="D16" s="1" t="s">
         <v>16</v>
       </c>
@@ -1260,7 +1267,7 @@
       <c r="G17" s="14"/>
       <c r="H17" s="1"/>
       <c r="I17" s="8"/>
-      <c r="J17" s="19"/>
+      <c r="J17" s="18"/>
       <c r="K17" s="1" t="s">
         <v>23</v>
       </c>
@@ -1291,7 +1298,7 @@
         <v>48</v>
       </c>
       <c r="J18" s="1"/>
-      <c r="K18" s="19"/>
+      <c r="K18" s="18"/>
       <c r="L18" s="1" t="s">
         <v>31</v>
       </c>
@@ -1328,7 +1335,7 @@
     </row>
     <row r="20" spans="1:16" ht="13.5" customHeight="1">
       <c r="A20" s="8"/>
-      <c r="B20" s="19"/>
+      <c r="B20" s="18"/>
       <c r="C20" s="1" t="s">
         <v>71</v>
       </c>
@@ -1343,7 +1350,7 @@
         <v>48</v>
       </c>
       <c r="J20" s="1"/>
-      <c r="K20" s="19"/>
+      <c r="K20" s="18"/>
       <c r="L20" s="1" t="s">
         <v>33</v>
       </c>
@@ -1384,7 +1391,7 @@
       <c r="A22" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B22" s="19"/>
+      <c r="B22" s="18"/>
       <c r="C22" s="1" t="s">
         <v>5</v>
       </c>
@@ -1396,7 +1403,7 @@
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="8"/>
-      <c r="J22" s="19"/>
+      <c r="J22" s="18"/>
       <c r="K22" s="1" t="s">
         <v>24</v>
       </c>
@@ -1410,7 +1417,7 @@
     </row>
     <row r="23" spans="1:16" ht="13.5" customHeight="1">
       <c r="A23" s="8"/>
-      <c r="B23" s="19"/>
+      <c r="B23" s="18"/>
       <c r="C23" s="1" t="s">
         <v>53</v>
       </c>
@@ -1420,7 +1427,7 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="8"/>
-      <c r="J23" s="21"/>
+      <c r="J23" s="20"/>
       <c r="K23" s="1" t="s">
         <v>25</v>
       </c>
@@ -1436,7 +1443,7 @@
     </row>
     <row r="24" spans="1:16" ht="13.5" customHeight="1">
       <c r="A24" s="8"/>
-      <c r="B24" s="19"/>
+      <c r="B24" s="18"/>
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1450,7 +1457,7 @@
       <c r="I24" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="J24" s="19"/>
+      <c r="J24" s="18"/>
       <c r="K24" s="1" t="s">
         <v>64</v>
       </c>
@@ -1478,7 +1485,7 @@
       <c r="I25" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="J25" s="19"/>
+      <c r="J25" s="18"/>
       <c r="K25" s="1" t="s">
         <v>97</v>
       </c>
@@ -1506,7 +1513,7 @@
       <c r="I26" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="J26" s="19"/>
+      <c r="J26" s="18"/>
       <c r="K26" s="1" t="s">
         <v>101</v>
       </c>
@@ -1520,7 +1527,7 @@
     </row>
     <row r="27" spans="1:16" ht="13.5" customHeight="1">
       <c r="A27" s="8"/>
-      <c r="B27" s="21"/>
+      <c r="B27" s="20"/>
       <c r="C27" s="1" t="s">
         <v>60</v>
       </c>
@@ -1534,7 +1541,7 @@
       <c r="I27" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="J27" s="19"/>
+      <c r="J27" s="18"/>
       <c r="K27" s="1" t="s">
         <v>28</v>
       </c>
@@ -1548,14 +1555,14 @@
       </c>
     </row>
     <row r="28" spans="1:16" ht="13.5" customHeight="1">
-      <c r="B28" s="23"/>
+      <c r="B28" s="22"/>
       <c r="C28" s="14" t="s">
         <v>92</v>
       </c>
       <c r="G28" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="J28" s="23"/>
+      <c r="J28" s="22"/>
       <c r="K28" s="14" t="s">
         <v>113</v>
       </c>
@@ -1596,7 +1603,7 @@
       <c r="I30" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="J30" s="20"/>
+      <c r="J30" s="19"/>
       <c r="K30" s="1" t="s">
         <v>96</v>
       </c>
@@ -1610,7 +1617,7 @@
     </row>
     <row r="31" spans="1:16" ht="13.5" customHeight="1">
       <c r="A31" s="8"/>
-      <c r="B31" s="19"/>
+      <c r="B31" s="18"/>
       <c r="C31" s="1" t="s">
         <v>12</v>
       </c>
@@ -1622,7 +1629,7 @@
       <c r="I31" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="J31" s="19"/>
+      <c r="J31" s="18"/>
       <c r="K31" s="1" t="s">
         <v>102</v>
       </c>
@@ -1638,7 +1645,7 @@
       <c r="A32" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B32" s="19"/>
+      <c r="B32" s="18"/>
       <c r="C32" s="1" t="s">
         <v>13</v>
       </c>
@@ -1652,7 +1659,7 @@
       <c r="I32" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="J32" s="19"/>
+      <c r="J32" s="18"/>
       <c r="K32" s="1" t="s">
         <v>107</v>
       </c>
@@ -1680,7 +1687,7 @@
       <c r="I33" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="J33" s="19"/>
+      <c r="J33" s="18"/>
       <c r="K33" s="1" t="s">
         <v>45</v>
       </c>
@@ -1696,7 +1703,7 @@
       <c r="A34" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="B34" s="15"/>
+      <c r="B34" s="25"/>
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>

--- a/trunk/2014/GN-Checkliste 2014.xlsx
+++ b/trunk/2014/GN-Checkliste 2014.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="11910" windowHeight="5610"/>
@@ -368,8 +368,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -429,7 +429,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -457,12 +457,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -494,7 +488,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -525,8 +519,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -542,7 +535,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
     <a:clrScheme name="Larissa">
       <a:dk1>
@@ -616,6 +609,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -650,6 +644,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Larissa">
@@ -825,14 +820,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="N47" sqref="N47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.7109375" style="3" customWidth="1"/>
     <col min="2" max="3" width="3.7109375" customWidth="1"/>
@@ -849,7 +844,7 @@
     <col min="15" max="15" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="26.25" customHeight="1">
+    <row r="1" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="8"/>
       <c r="B1" s="9" t="s">
         <v>27</v>
@@ -869,7 +864,7 @@
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
-    <row r="2" spans="1:16" ht="13.5" customHeight="1">
+    <row r="2" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -887,7 +882,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="13.5" customHeight="1">
+    <row r="3" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
       <c r="B3" s="4" t="s">
         <v>34</v>
@@ -911,7 +906,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="13.5" customHeight="1">
+    <row r="4" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
       <c r="B4" s="10"/>
       <c r="C4" s="2" t="s">
@@ -924,9 +919,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="8" t="s">
-        <v>111</v>
-      </c>
+      <c r="I4" s="8"/>
       <c r="J4" s="18"/>
       <c r="K4" s="1" t="s">
         <v>82</v>
@@ -939,7 +932,7 @@
       </c>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="13.5" customHeight="1">
+    <row r="5" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
       <c r="B5" s="11"/>
       <c r="C5" s="1" t="s">
@@ -965,7 +958,7 @@
       </c>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="13.5" customHeight="1">
+    <row r="6" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="6"/>
       <c r="C6" s="1" t="s">
@@ -989,7 +982,7 @@
       </c>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="13.5" customHeight="1">
+    <row r="7" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="12"/>
       <c r="C7" s="1" t="s">
@@ -1015,7 +1008,7 @@
       </c>
       <c r="P7" s="1"/>
     </row>
-    <row r="8" spans="1:16" ht="13.5" customHeight="1">
+    <row r="8" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="B8" s="13"/>
       <c r="C8" s="14" t="s">
@@ -1039,7 +1032,7 @@
       </c>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="1:16" ht="13.5" customHeight="1">
+    <row r="9" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>47</v>
       </c>
@@ -1065,7 +1058,7 @@
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:16" ht="13.5" customHeight="1">
+    <row r="10" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10" s="18"/>
       <c r="C10" s="1" t="s">
@@ -1089,7 +1082,7 @@
       </c>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:16" ht="13.5" customHeight="1">
+    <row r="11" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="15"/>
       <c r="C11" s="1" t="s">
@@ -1103,7 +1096,7 @@
       <c r="I11" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="J11" s="15"/>
+      <c r="J11" s="18"/>
       <c r="K11" s="1" t="s">
         <v>2</v>
       </c>
@@ -1115,11 +1108,11 @@
       </c>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="1:16" ht="13.5" customHeight="1">
+    <row r="12" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="15"/>
+      <c r="B12" s="18"/>
       <c r="C12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1141,9 +1134,11 @@
       </c>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="1:16" ht="13.5" customHeight="1">
-      <c r="A13" s="8"/>
-      <c r="B13" s="15"/>
+    <row r="13" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B13" s="18"/>
       <c r="C13" s="1" t="s">
         <v>77</v>
       </c>
@@ -1167,7 +1162,7 @@
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="1:16" ht="13.5" customHeight="1">
+    <row r="14" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
       <c r="B14" s="15"/>
       <c r="C14" s="1" t="s">
@@ -1183,7 +1178,7 @@
       <c r="I14" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="J14" s="15"/>
+      <c r="J14" s="18"/>
       <c r="K14" s="1" t="s">
         <v>20</v>
       </c>
@@ -1195,7 +1190,7 @@
       </c>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="1:16" ht="13.5" customHeight="1">
+    <row r="15" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>59</v>
       </c>
@@ -1223,7 +1218,7 @@
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:16" ht="13.5" customHeight="1">
+    <row r="16" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>59</v>
       </c>
@@ -1253,7 +1248,7 @@
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="1:16" ht="13.5" customHeight="1">
+    <row r="17" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>59</v>
       </c>
@@ -1281,7 +1276,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="13.5" customHeight="1">
+    <row r="18" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="B18" s="15"/>
       <c r="C18" s="1" t="s">
@@ -1309,7 +1304,7 @@
       </c>
       <c r="P18" s="1"/>
     </row>
-    <row r="19" spans="1:16" ht="13.5" customHeight="1">
+    <row r="19" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="16"/>
       <c r="C19" s="1" t="s">
@@ -1333,7 +1328,7 @@
       </c>
       <c r="P19" s="1"/>
     </row>
-    <row r="20" spans="1:16" ht="13.5" customHeight="1">
+    <row r="20" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="18"/>
       <c r="C20" s="1" t="s">
@@ -1359,7 +1354,7 @@
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
     </row>
-    <row r="21" spans="1:16" ht="13.5" customHeight="1">
+    <row r="21" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>57</v>
       </c>
@@ -1387,7 +1382,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="13.5" customHeight="1">
+    <row r="22" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>59</v>
       </c>
@@ -1415,7 +1410,7 @@
       </c>
       <c r="P22" s="1"/>
     </row>
-    <row r="23" spans="1:16" ht="13.5" customHeight="1">
+    <row r="23" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="18"/>
       <c r="C23" s="1" t="s">
@@ -1441,7 +1436,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="13.5" customHeight="1">
+    <row r="24" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
       <c r="B24" s="18"/>
       <c r="C24" s="1" t="s">
@@ -1469,7 +1464,7 @@
       </c>
       <c r="P24" s="1"/>
     </row>
-    <row r="25" spans="1:16" ht="13.5" customHeight="1">
+    <row r="25" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="15"/>
       <c r="C25" s="1" t="s">
@@ -1497,7 +1492,7 @@
       </c>
       <c r="P25" s="1"/>
     </row>
-    <row r="26" spans="1:16" ht="13.5" customHeight="1">
+    <row r="26" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="15"/>
       <c r="C26" s="1" t="s">
@@ -1525,7 +1520,7 @@
       </c>
       <c r="P26" s="1"/>
     </row>
-    <row r="27" spans="1:16" ht="13.5" customHeight="1">
+    <row r="27" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="20"/>
       <c r="C27" s="1" t="s">
@@ -1554,7 +1549,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="13.5" customHeight="1">
+    <row r="28" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="22"/>
       <c r="C28" s="14" t="s">
         <v>92</v>
@@ -1570,7 +1565,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="13.5" customHeight="1">
+    <row r="29" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="17"/>
       <c r="C29" s="14" t="s">
         <v>105</v>
@@ -1587,7 +1582,7 @@
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
     </row>
-    <row r="30" spans="1:16" ht="13.5" customHeight="1">
+    <row r="30" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>48</v>
       </c>
@@ -1615,7 +1610,7 @@
       </c>
       <c r="P30" s="1"/>
     </row>
-    <row r="31" spans="1:16" ht="13.5" customHeight="1">
+    <row r="31" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="B31" s="18"/>
       <c r="C31" s="1" t="s">
@@ -1641,7 +1636,7 @@
       </c>
       <c r="P31" s="1"/>
     </row>
-    <row r="32" spans="1:16" ht="13.5" customHeight="1">
+    <row r="32" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>65</v>
       </c>
@@ -1671,7 +1666,7 @@
       </c>
       <c r="P32" s="1"/>
     </row>
-    <row r="33" spans="1:16" ht="13.5" customHeight="1">
+    <row r="33" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>59</v>
       </c>
@@ -1699,11 +1694,11 @@
       </c>
       <c r="P33" s="1"/>
     </row>
-    <row r="34" spans="1:16" ht="13.5" customHeight="1">
+    <row r="34" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="B34" s="25"/>
+      <c r="B34" s="18"/>
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1723,7 +1718,7 @@
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
     </row>
-    <row r="35" spans="1:16" ht="13.5" customHeight="1">
+    <row r="35" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
         <v>49</v>
       </c>
@@ -1749,7 +1744,7 @@
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
     </row>
-    <row r="36" spans="1:16" ht="13.5" customHeight="1">
+    <row r="36" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
       <c r="B36" s="15"/>
       <c r="C36" s="1" t="s">
@@ -1775,7 +1770,7 @@
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
     </row>
-    <row r="37" spans="1:16" ht="13.5" customHeight="1">
+    <row r="37" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
       <c r="B37" s="15"/>
       <c r="C37" s="1" t="s">
@@ -1795,7 +1790,7 @@
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
     </row>
-    <row r="38" spans="1:16" ht="13.5" customHeight="1">
+    <row r="38" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -1813,7 +1808,7 @@
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
     </row>
-    <row r="39" spans="1:16" ht="13.5" customHeight="1">
+    <row r="39" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H39" s="1"/>
       <c r="I39" s="8"/>
       <c r="J39" s="1"/>
@@ -1824,10 +1819,10 @@
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
     </row>
-    <row r="40" spans="1:16" ht="13.5" customHeight="1"/>
-    <row r="41" spans="1:16" ht="13.5" customHeight="1"/>
-    <row r="42" spans="1:16" ht="13.5" customHeight="1"/>
-    <row r="43" spans="1:16" ht="13.5" customHeight="1"/>
+    <row r="40" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1835,12 +1830,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/trunk/2014/GN-Checkliste 2014.xlsx
+++ b/trunk/2014/GN-Checkliste 2014.xlsx
@@ -824,7 +824,7 @@
   <dimension ref="A1:P43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N47" sqref="N47"/>
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1278,7 +1278,7 @@
     </row>
     <row r="18" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
-      <c r="B18" s="15"/>
+      <c r="B18" s="18"/>
       <c r="C18" s="1" t="s">
         <v>95</v>
       </c>

--- a/trunk/2014/GN-Checkliste 2014.xlsx
+++ b/trunk/2014/GN-Checkliste 2014.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="11910" windowHeight="5610"/>
@@ -10,7 +10,7 @@
     <sheet name="Organisatorisches" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -224,9 +224,6 @@
     <t>teilw. Gemeinde</t>
   </si>
   <si>
-    <t>Mayrhofer, Oggolder</t>
-  </si>
-  <si>
     <t>Rittberger</t>
   </si>
   <si>
@@ -363,13 +360,16 @@
   </si>
   <si>
     <t>Plöderl Mike</t>
+  </si>
+  <si>
+    <t>Mayrhofer, Oggolder, Hinterkörner</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -535,7 +535,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
   <a:themeElements>
     <a:clrScheme name="Larissa">
       <a:dk1>
@@ -609,7 +609,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -644,7 +643,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Larissa">
@@ -820,14 +818,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.7109375" style="3" customWidth="1"/>
     <col min="2" max="3" width="3.7109375" customWidth="1"/>
@@ -844,7 +842,7 @@
     <col min="15" max="15" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" ht="26.25" customHeight="1">
       <c r="A1" s="8"/>
       <c r="B1" s="9" t="s">
         <v>27</v>
@@ -864,7 +862,7 @@
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
-    <row r="2" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="13.5" customHeight="1">
       <c r="A2" s="8"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -882,7 +880,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="13.5" customHeight="1">
       <c r="A3" s="8"/>
       <c r="B3" s="4" t="s">
         <v>34</v>
@@ -906,7 +904,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="13.5" customHeight="1">
       <c r="A4" s="8"/>
       <c r="B4" s="10"/>
       <c r="C4" s="2" t="s">
@@ -922,7 +920,7 @@
       <c r="I4" s="8"/>
       <c r="J4" s="18"/>
       <c r="K4" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
@@ -932,7 +930,7 @@
       </c>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="13.5" customHeight="1">
       <c r="A5" s="8"/>
       <c r="B5" s="11"/>
       <c r="C5" s="1" t="s">
@@ -944,21 +942,21 @@
       <c r="G5" s="4"/>
       <c r="H5" s="1"/>
       <c r="I5" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J5" s="18"/>
       <c r="K5" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="13.5" customHeight="1">
       <c r="A6" s="8"/>
       <c r="B6" s="6"/>
       <c r="C6" s="1" t="s">
@@ -978,11 +976,11 @@
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="13.5" customHeight="1">
       <c r="A7" s="8"/>
       <c r="B7" s="12"/>
       <c r="C7" s="1" t="s">
@@ -994,7 +992,7 @@
       <c r="G7" s="4"/>
       <c r="H7" s="1"/>
       <c r="I7" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J7" s="18"/>
       <c r="K7" s="1" t="s">
@@ -1004,11 +1002,11 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P7" s="1"/>
     </row>
-    <row r="8" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="13.5" customHeight="1">
       <c r="A8" s="8"/>
       <c r="B8" s="13"/>
       <c r="C8" s="14" t="s">
@@ -1032,7 +1030,7 @@
       </c>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="13.5" customHeight="1">
       <c r="A9" s="8" t="s">
         <v>47</v>
       </c>
@@ -1046,7 +1044,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J9" s="4" t="s">
         <v>0</v>
@@ -1058,7 +1056,7 @@
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="13.5" customHeight="1">
       <c r="A10" s="8"/>
       <c r="B10" s="18"/>
       <c r="C10" s="1" t="s">
@@ -1078,11 +1076,11 @@
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" ht="13.5" customHeight="1">
       <c r="A11" s="8"/>
       <c r="B11" s="15"/>
       <c r="C11" s="1" t="s">
@@ -1104,11 +1102,11 @@
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" ht="13.5" customHeight="1">
       <c r="A12" s="8" t="s">
         <v>48</v>
       </c>
@@ -1130,23 +1128,23 @@
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="13.5" customHeight="1">
       <c r="A13" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B13" s="18"/>
       <c r="C13" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="8" t="s">
@@ -1162,17 +1160,17 @@
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" ht="13.5" customHeight="1">
       <c r="A14" s="8"/>
       <c r="B14" s="15"/>
       <c r="C14" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="8" t="s">
@@ -1186,11 +1184,11 @@
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" ht="13.5" customHeight="1">
       <c r="A15" s="8" t="s">
         <v>59</v>
       </c>
@@ -1202,11 +1200,11 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J15" s="4" t="s">
         <v>62</v>
@@ -1218,7 +1216,7 @@
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" ht="13.5" customHeight="1">
       <c r="A16" s="8" t="s">
         <v>59</v>
       </c>
@@ -1228,11 +1226,11 @@
         <v>16</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="8" t="s">
@@ -1248,7 +1246,7 @@
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" ht="13.5" customHeight="1">
       <c r="A17" s="8" t="s">
         <v>59</v>
       </c>
@@ -1270,23 +1268,23 @@
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="13.5" customHeight="1">
       <c r="A18" s="8"/>
       <c r="B18" s="18"/>
       <c r="C18" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="8" t="s">
@@ -1300,11 +1298,11 @@
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P18" s="1"/>
     </row>
-    <row r="19" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" ht="13.5" customHeight="1">
       <c r="A19" s="8"/>
       <c r="B19" s="16"/>
       <c r="C19" s="1" t="s">
@@ -1324,21 +1322,21 @@
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P19" s="1"/>
     </row>
-    <row r="20" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" ht="13.5" customHeight="1">
       <c r="A20" s="8"/>
       <c r="B20" s="18"/>
       <c r="C20" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="8" t="s">
@@ -1354,7 +1352,7 @@
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
     </row>
-    <row r="21" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" ht="13.5" customHeight="1">
       <c r="A21" s="8" t="s">
         <v>57</v>
       </c>
@@ -1376,13 +1374,13 @@
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="13.5" customHeight="1">
       <c r="A22" s="8" t="s">
         <v>59</v>
       </c>
@@ -1406,11 +1404,11 @@
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P22" s="1"/>
     </row>
-    <row r="23" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" ht="13.5" customHeight="1">
       <c r="A23" s="8"/>
       <c r="B23" s="18"/>
       <c r="C23" s="1" t="s">
@@ -1430,13 +1428,13 @@
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="13.5" customHeight="1">
       <c r="A24" s="8"/>
       <c r="B24" s="18"/>
       <c r="C24" s="1" t="s">
@@ -1460,13 +1458,13 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P24" s="1"/>
     </row>
-    <row r="25" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" ht="13.5" customHeight="1">
       <c r="A25" s="8"/>
-      <c r="B25" s="15"/>
+      <c r="B25" s="18"/>
       <c r="C25" s="1" t="s">
         <v>52</v>
       </c>
@@ -1482,19 +1480,19 @@
       </c>
       <c r="J25" s="18"/>
       <c r="K25" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
       <c r="O25" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P25" s="1"/>
     </row>
-    <row r="26" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" ht="13.5" customHeight="1">
       <c r="A26" s="8"/>
-      <c r="B26" s="15"/>
+      <c r="B26" s="18"/>
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1510,17 +1508,17 @@
       </c>
       <c r="J26" s="18"/>
       <c r="K26" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
       <c r="O26" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P26" s="1"/>
     </row>
-    <row r="27" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" ht="13.5" customHeight="1">
       <c r="A27" s="8"/>
       <c r="B27" s="20"/>
       <c r="C27" s="1" t="s">
@@ -1530,11 +1528,11 @@
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="14" t="s">
-        <v>69</v>
+        <v>115</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J27" s="18"/>
       <c r="K27" s="1" t="s">
@@ -1543,32 +1541,32 @@
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="O27" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P27" s="14" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="13.5" customHeight="1">
       <c r="B28" s="22"/>
       <c r="C28" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G28" s="14" t="s">
         <v>92</v>
-      </c>
-      <c r="G28" s="14" t="s">
-        <v>93</v>
       </c>
       <c r="J28" s="22"/>
       <c r="K28" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="O28" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="O28" s="14" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:16" ht="13.5" customHeight="1">
       <c r="B29" s="17"/>
       <c r="C29" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="8"/>
@@ -1582,7 +1580,7 @@
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
     </row>
-    <row r="30" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" ht="13.5" customHeight="1">
       <c r="A30" s="8" t="s">
         <v>48</v>
       </c>
@@ -1600,17 +1598,17 @@
       </c>
       <c r="J30" s="19"/>
       <c r="K30" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P30" s="1"/>
     </row>
-    <row r="31" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" ht="13.5" customHeight="1">
       <c r="A31" s="8"/>
       <c r="B31" s="18"/>
       <c r="C31" s="1" t="s">
@@ -1626,17 +1624,17 @@
       </c>
       <c r="J31" s="18"/>
       <c r="K31" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
       <c r="O31" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P31" s="1"/>
     </row>
-    <row r="32" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" ht="13.5" customHeight="1">
       <c r="A32" s="8" t="s">
         <v>65</v>
       </c>
@@ -1648,7 +1646,7 @@
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="8" t="s">
@@ -1656,7 +1654,7 @@
       </c>
       <c r="J32" s="18"/>
       <c r="K32" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
@@ -1666,7 +1664,7 @@
       </c>
       <c r="P32" s="1"/>
     </row>
-    <row r="33" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" ht="13.5" customHeight="1">
       <c r="A33" s="8" t="s">
         <v>59</v>
       </c>
@@ -1680,7 +1678,7 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J33" s="18"/>
       <c r="K33" s="1" t="s">
@@ -1690,13 +1688,13 @@
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
       <c r="O33" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P33" s="1"/>
     </row>
-    <row r="34" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" ht="13.5" customHeight="1">
       <c r="A34" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B34" s="18"/>
       <c r="C34" s="1" t="s">
@@ -1718,7 +1716,7 @@
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
     </row>
-    <row r="35" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" ht="13.5" customHeight="1">
       <c r="A35" s="8" t="s">
         <v>49</v>
       </c>
@@ -1744,7 +1742,7 @@
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
     </row>
-    <row r="36" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" ht="13.5" customHeight="1">
       <c r="A36" s="8"/>
       <c r="B36" s="15"/>
       <c r="C36" s="1" t="s">
@@ -1770,7 +1768,7 @@
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
     </row>
-    <row r="37" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" ht="13.5" customHeight="1">
       <c r="A37" s="8"/>
       <c r="B37" s="15"/>
       <c r="C37" s="1" t="s">
@@ -1790,7 +1788,7 @@
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
     </row>
-    <row r="38" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" ht="13.5" customHeight="1">
       <c r="A38" s="8"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -1808,7 +1806,7 @@
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
     </row>
-    <row r="39" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" ht="13.5" customHeight="1">
       <c r="H39" s="1"/>
       <c r="I39" s="8"/>
       <c r="J39" s="1"/>
@@ -1819,10 +1817,10 @@
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
     </row>
-    <row r="40" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:16" ht="13.5" customHeight="1"/>
+    <row r="41" spans="1:16" ht="13.5" customHeight="1"/>
+    <row r="42" spans="1:16" ht="13.5" customHeight="1"/>
+    <row r="43" spans="1:16" ht="13.5" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1830,12 +1828,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/trunk/2014/GN-Checkliste 2014.xlsx
+++ b/trunk/2014/GN-Checkliste 2014.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="11910" windowHeight="5610"/>
@@ -368,8 +368,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -535,7 +535,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
     <a:clrScheme name="Larissa">
       <a:dk1>
@@ -609,6 +609,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -643,6 +644,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Larissa">
@@ -818,14 +820,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.7109375" style="3" customWidth="1"/>
     <col min="2" max="3" width="3.7109375" customWidth="1"/>
@@ -842,7 +844,7 @@
     <col min="15" max="15" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="26.25" customHeight="1">
+    <row r="1" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="8"/>
       <c r="B1" s="9" t="s">
         <v>27</v>
@@ -862,7 +864,7 @@
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
-    <row r="2" spans="1:16" ht="13.5" customHeight="1">
+    <row r="2" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -880,7 +882,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="13.5" customHeight="1">
+    <row r="3" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
       <c r="B3" s="4" t="s">
         <v>34</v>
@@ -904,7 +906,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="13.5" customHeight="1">
+    <row r="4" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
       <c r="B4" s="10"/>
       <c r="C4" s="2" t="s">
@@ -930,7 +932,7 @@
       </c>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="13.5" customHeight="1">
+    <row r="5" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
       <c r="B5" s="11"/>
       <c r="C5" s="1" t="s">
@@ -956,7 +958,7 @@
       </c>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="13.5" customHeight="1">
+    <row r="6" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="6"/>
       <c r="C6" s="1" t="s">
@@ -967,8 +969,10 @@
       <c r="F6" s="1"/>
       <c r="G6" s="4"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="15"/>
+      <c r="I6" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="J6" s="18"/>
       <c r="K6" s="2" t="s">
         <v>58</v>
       </c>
@@ -980,7 +984,7 @@
       </c>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="13.5" customHeight="1">
+    <row r="7" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="12"/>
       <c r="C7" s="1" t="s">
@@ -1006,7 +1010,7 @@
       </c>
       <c r="P7" s="1"/>
     </row>
-    <row r="8" spans="1:16" ht="13.5" customHeight="1">
+    <row r="8" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="B8" s="13"/>
       <c r="C8" s="14" t="s">
@@ -1030,7 +1034,7 @@
       </c>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="1:16" ht="13.5" customHeight="1">
+    <row r="9" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>47</v>
       </c>
@@ -1056,7 +1060,7 @@
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:16" ht="13.5" customHeight="1">
+    <row r="10" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10" s="18"/>
       <c r="C10" s="1" t="s">
@@ -1080,7 +1084,7 @@
       </c>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:16" ht="13.5" customHeight="1">
+    <row r="11" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="15"/>
       <c r="C11" s="1" t="s">
@@ -1106,7 +1110,7 @@
       </c>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="1:16" ht="13.5" customHeight="1">
+    <row r="12" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>48</v>
       </c>
@@ -1132,10 +1136,8 @@
       </c>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="1:16" ht="13.5" customHeight="1">
-      <c r="A13" s="8" t="s">
-        <v>110</v>
-      </c>
+    <row r="13" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
       <c r="B13" s="18"/>
       <c r="C13" s="1" t="s">
         <v>76</v>
@@ -1160,7 +1162,7 @@
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="1:16" ht="13.5" customHeight="1">
+    <row r="14" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
       <c r="B14" s="15"/>
       <c r="C14" s="1" t="s">
@@ -1188,7 +1190,7 @@
       </c>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="1:16" ht="13.5" customHeight="1">
+    <row r="15" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>59</v>
       </c>
@@ -1216,7 +1218,7 @@
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:16" ht="13.5" customHeight="1">
+    <row r="16" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>59</v>
       </c>
@@ -1246,7 +1248,7 @@
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="1:16" ht="13.5" customHeight="1">
+    <row r="17" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>59</v>
       </c>
@@ -1274,7 +1276,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="13.5" customHeight="1">
+    <row r="18" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="B18" s="18"/>
       <c r="C18" s="1" t="s">
@@ -1302,7 +1304,7 @@
       </c>
       <c r="P18" s="1"/>
     </row>
-    <row r="19" spans="1:16" ht="13.5" customHeight="1">
+    <row r="19" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="16"/>
       <c r="C19" s="1" t="s">
@@ -1326,7 +1328,7 @@
       </c>
       <c r="P19" s="1"/>
     </row>
-    <row r="20" spans="1:16" ht="13.5" customHeight="1">
+    <row r="20" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="18"/>
       <c r="C20" s="1" t="s">
@@ -1352,7 +1354,7 @@
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
     </row>
-    <row r="21" spans="1:16" ht="13.5" customHeight="1">
+    <row r="21" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>57</v>
       </c>
@@ -1380,7 +1382,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="13.5" customHeight="1">
+    <row r="22" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>59</v>
       </c>
@@ -1408,7 +1410,7 @@
       </c>
       <c r="P22" s="1"/>
     </row>
-    <row r="23" spans="1:16" ht="13.5" customHeight="1">
+    <row r="23" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="18"/>
       <c r="C23" s="1" t="s">
@@ -1434,7 +1436,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="13.5" customHeight="1">
+    <row r="24" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
       <c r="B24" s="18"/>
       <c r="C24" s="1" t="s">
@@ -1462,7 +1464,7 @@
       </c>
       <c r="P24" s="1"/>
     </row>
-    <row r="25" spans="1:16" ht="13.5" customHeight="1">
+    <row r="25" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="18"/>
       <c r="C25" s="1" t="s">
@@ -1490,7 +1492,7 @@
       </c>
       <c r="P25" s="1"/>
     </row>
-    <row r="26" spans="1:16" ht="13.5" customHeight="1">
+    <row r="26" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="18"/>
       <c r="C26" s="1" t="s">
@@ -1518,7 +1520,7 @@
       </c>
       <c r="P26" s="1"/>
     </row>
-    <row r="27" spans="1:16" ht="13.5" customHeight="1">
+    <row r="27" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="20"/>
       <c r="C27" s="1" t="s">
@@ -1547,7 +1549,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="13.5" customHeight="1">
+    <row r="28" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="22"/>
       <c r="C28" s="14" t="s">
         <v>91</v>
@@ -1563,7 +1565,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="13.5" customHeight="1">
+    <row r="29" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="17"/>
       <c r="C29" s="14" t="s">
         <v>104</v>
@@ -1580,7 +1582,7 @@
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
     </row>
-    <row r="30" spans="1:16" ht="13.5" customHeight="1">
+    <row r="30" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>48</v>
       </c>
@@ -1608,7 +1610,7 @@
       </c>
       <c r="P30" s="1"/>
     </row>
-    <row r="31" spans="1:16" ht="13.5" customHeight="1">
+    <row r="31" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="B31" s="18"/>
       <c r="C31" s="1" t="s">
@@ -1634,7 +1636,7 @@
       </c>
       <c r="P31" s="1"/>
     </row>
-    <row r="32" spans="1:16" ht="13.5" customHeight="1">
+    <row r="32" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>65</v>
       </c>
@@ -1664,7 +1666,7 @@
       </c>
       <c r="P32" s="1"/>
     </row>
-    <row r="33" spans="1:16" ht="13.5" customHeight="1">
+    <row r="33" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>59</v>
       </c>
@@ -1692,7 +1694,7 @@
       </c>
       <c r="P33" s="1"/>
     </row>
-    <row r="34" spans="1:16" ht="13.5" customHeight="1">
+    <row r="34" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
         <v>103</v>
       </c>
@@ -1716,7 +1718,7 @@
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
     </row>
-    <row r="35" spans="1:16" ht="13.5" customHeight="1">
+    <row r="35" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
         <v>49</v>
       </c>
@@ -1742,7 +1744,7 @@
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
     </row>
-    <row r="36" spans="1:16" ht="13.5" customHeight="1">
+    <row r="36" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
       <c r="B36" s="15"/>
       <c r="C36" s="1" t="s">
@@ -1768,7 +1770,7 @@
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
     </row>
-    <row r="37" spans="1:16" ht="13.5" customHeight="1">
+    <row r="37" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
       <c r="B37" s="15"/>
       <c r="C37" s="1" t="s">
@@ -1788,7 +1790,7 @@
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
     </row>
-    <row r="38" spans="1:16" ht="13.5" customHeight="1">
+    <row r="38" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -1806,7 +1808,7 @@
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
     </row>
-    <row r="39" spans="1:16" ht="13.5" customHeight="1">
+    <row r="39" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H39" s="1"/>
       <c r="I39" s="8"/>
       <c r="J39" s="1"/>
@@ -1817,10 +1819,10 @@
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
     </row>
-    <row r="40" spans="1:16" ht="13.5" customHeight="1"/>
-    <row r="41" spans="1:16" ht="13.5" customHeight="1"/>
-    <row r="42" spans="1:16" ht="13.5" customHeight="1"/>
-    <row r="43" spans="1:16" ht="13.5" customHeight="1"/>
+    <row r="40" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1828,12 +1830,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/trunk/2014/GN-Checkliste 2014.xlsx
+++ b/trunk/2014/GN-Checkliste 2014.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="11910" windowHeight="5610"/>
+    <workbookView xWindow="120" yWindow="165" windowWidth="11910" windowHeight="5550"/>
   </bookViews>
   <sheets>
     <sheet name="Organisatorisches" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="116">
   <si>
     <t>Musik</t>
   </si>
@@ -296,15 +296,9 @@
     <t>Höllwirth</t>
   </si>
   <si>
-    <t>Buchner, Hinterkörner, Hochreiter</t>
-  </si>
-  <si>
     <t>Tarnnetze (grün) 10 Stück</t>
   </si>
   <si>
-    <t>Schraubzwingen (20 Stück)</t>
-  </si>
-  <si>
     <t>Durchlaufkühler + 2 Kohlensäurefl.</t>
   </si>
   <si>
@@ -363,6 +357,12 @@
   </si>
   <si>
     <t>Mayrhofer, Oggolder, Hinterkörner</t>
+  </si>
+  <si>
+    <t>Buchner, Hochreiter</t>
+  </si>
+  <si>
+    <t>Schraubzwingen (25 Stück)</t>
   </si>
 </sst>
 </file>
@@ -823,8 +823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -944,7 +944,7 @@
       <c r="G5" s="4"/>
       <c r="H5" s="1"/>
       <c r="I5" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J5" s="18"/>
       <c r="K5" s="1" t="s">
@@ -970,7 +970,7 @@
       <c r="G6" s="4"/>
       <c r="H6" s="1"/>
       <c r="I6" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J6" s="18"/>
       <c r="K6" s="2" t="s">
@@ -996,7 +996,7 @@
       <c r="G7" s="4"/>
       <c r="H7" s="1"/>
       <c r="I7" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J7" s="18"/>
       <c r="K7" s="1" t="s">
@@ -1048,7 +1048,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J9" s="4" t="s">
         <v>0</v>
@@ -1080,13 +1080,13 @@
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P10" s="1"/>
     </row>
     <row r="11" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
-      <c r="B11" s="15"/>
+      <c r="B11" s="18"/>
       <c r="C11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1132,7 +1132,7 @@
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="14" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="P12" s="1"/>
     </row>
@@ -1228,7 +1228,7 @@
         <v>16</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
@@ -1273,14 +1273,14 @@
         <v>85</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="B18" s="18"/>
       <c r="C18" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -1306,7 +1306,7 @@
     </row>
     <row r="19" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
-      <c r="B19" s="16"/>
+      <c r="B19" s="21"/>
       <c r="C19" s="1" t="s">
         <v>38</v>
       </c>
@@ -1369,7 +1369,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="8"/>
       <c r="J21" s="1"/>
-      <c r="K21" s="15"/>
+      <c r="K21" s="18"/>
       <c r="L21" s="1" t="s">
         <v>63</v>
       </c>
@@ -1379,7 +1379,7 @@
         <v>85</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1433,7 +1433,7 @@
         <v>87</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1482,7 +1482,7 @@
       </c>
       <c r="J25" s="18"/>
       <c r="K25" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
@@ -1510,7 +1510,7 @@
       </c>
       <c r="J26" s="18"/>
       <c r="K26" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
@@ -1530,11 +1530,11 @@
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="14" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J27" s="18"/>
       <c r="K27" s="1" t="s">
@@ -1543,10 +1543,10 @@
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="O27" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="P27" s="14" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1559,16 +1559,16 @@
       </c>
       <c r="J28" s="22"/>
       <c r="K28" s="14" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="O28" s="14" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="17"/>
       <c r="C29" s="14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="8"/>
@@ -1583,39 +1583,34 @@
       <c r="P29" s="1"/>
     </row>
     <row r="30" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="14" t="s">
+        <v>110</v>
+      </c>
       <c r="H30" s="1"/>
       <c r="I30" s="8" t="s">
         <v>59</v>
       </c>
       <c r="J30" s="19"/>
       <c r="K30" s="1" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" s="14" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="P30" s="1"/>
     </row>
     <row r="31" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="8"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="A31" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -1626,7 +1621,7 @@
       </c>
       <c r="J31" s="18"/>
       <c r="K31" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
@@ -1637,26 +1632,22 @@
       <c r="P31" s="1"/>
     </row>
     <row r="32" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
-        <v>65</v>
-      </c>
+      <c r="A32" s="8"/>
       <c r="B32" s="18"/>
       <c r="C32" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
-      <c r="G32" s="14" t="s">
-        <v>69</v>
-      </c>
+      <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="8" t="s">
         <v>59</v>
       </c>
       <c r="J32" s="18"/>
       <c r="K32" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
@@ -1668,19 +1659,21 @@
     </row>
     <row r="33" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B33" s="15"/>
+        <v>65</v>
+      </c>
+      <c r="B33" s="18"/>
       <c r="C33" s="1" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
+      <c r="G33" s="14" t="s">
+        <v>69</v>
+      </c>
       <c r="H33" s="1"/>
       <c r="I33" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J33" s="18"/>
       <c r="K33" s="1" t="s">
@@ -1696,11 +1689,11 @@
     </row>
     <row r="34" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="B34" s="18"/>
+        <v>59</v>
+      </c>
+      <c r="B34" s="15"/>
       <c r="C34" s="1" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -1720,11 +1713,11 @@
     </row>
     <row r="35" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B35" s="16"/>
+        <v>101</v>
+      </c>
+      <c r="B35" s="18"/>
       <c r="C35" s="1" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -1745,14 +1738,14 @@
       <c r="P35" s="1"/>
     </row>
     <row r="36" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="8"/>
-      <c r="B36" s="15"/>
+      <c r="A36" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B36" s="16"/>
       <c r="C36" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>56</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
@@ -1774,9 +1767,11 @@
       <c r="A37" s="8"/>
       <c r="B37" s="15"/>
       <c r="C37" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D37" s="1"/>
+        <v>43</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
@@ -1792,8 +1787,10 @@
     </row>
     <row r="38" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
